--- a/rd/trunk/Server/ServerCode/hawkjava/GameServer/xml/reward.xlsx
+++ b/rd/trunk/Server/ServerCode/hawkjava/GameServer/xml/reward.xlsx
@@ -45,7 +45,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>3_20001_1_0.7,4_70001_1_3_2_0.7,6_1001_2_0.5,1_1_100_1.0,1_2_100_1.0</t>
+    <t>3_20001_1_0.7,4_70001_1_3_2_0.7,6_1001_2_1,1_1_100_1.0,1_2_100_1.0,2_5_1000_0.9</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -992,13 +992,13 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="70.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="111.375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>

--- a/rd/trunk/Server/ServerCode/hawkjava/GameServer/xml/reward.xlsx
+++ b/rd/trunk/Server/ServerCode/hawkjava/GameServer/xml/reward.xlsx
@@ -45,7 +45,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>3_20001_1_0.7,4_70001_1_3_2_0.7,6_1001_2_1,1_1_100_1.0,1_2_100_1.0,2_5_1000_0.9</t>
+    <t>3_20001_1_0.7,4_70001_1_3_2_0.7,6_1001_2_1,1_1_100_1.0,1_2_100_1.0,2_5_1000_0.9,1_3_100_1.0</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
